--- a/biology/Zoologie/Ace_Ventura_(série_télévisée_d'animation)/Ace_Ventura_(série_télévisée_d'animation).xlsx
+++ b/biology/Zoologie/Ace_Ventura_(série_télévisée_d'animation)/Ace_Ventura_(série_télévisée_d'animation).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ace_Ventura_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e_d%27animation)</t>
+          <t>Ace_Ventura_(série_télévisée_d'animation)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ace Ventura (Ace Ventura: Pet Detective) est une série télévisée d'animation canado-américaine en 41 épisodes de 30 minutes créée par la société de production Nelvana d'après le film Ace Ventura, détective pour chiens et chats et diffusée entre le 9 décembre 1995 et le 21 janvier 2000 sur CBS.
 En France, elle est diffusée à partir du 24 septembre 1997 sur M6 dans l'émission M6 Kid. Au Québec, la série a été diffusée partir de 1997 sur Télétoon.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ace_Ventura_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e_d%27animation)</t>
+          <t>Ace_Ventura_(série_télévisée_d'animation)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ace Ventura est un détective animalier parfois déjanté et paranoïaque.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ace_Ventura_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e_d%27animation)</t>
+          <t>Ace_Ventura_(série_télévisée_d'animation)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,16 +559,18 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Voix originales
-Michael Daingerfield : Ace Ventura
+          <t>Voix originales</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Michael Daingerfield : Ace Ventura
 Richard Binsley : Spike
 Vince Corazza : Schickadance
 Pam Hyatt : Atrocia Odora
 Bruce Tubbe : Emilio
-Al Waxman : Aguado
-Voix française
-Emmanuel Curtil : Ace Ventura
-Martine Irzenski : Space Love</t>
+Al Waxman : Aguado</t>
         </is>
       </c>
     </row>
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ace_Ventura_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e_d%27animation)</t>
+          <t>Ace_Ventura_(série_télévisée_d'animation)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,13 +595,55 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Voix française</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Emmanuel Curtil : Ace Ventura
+Martine Irzenski : Space Love</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ace_Ventura_(série_télévisée_d'animation)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ace_Ventura_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e_d%27animation)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Première saison (1995)
-On a volé les cerfs du Père Noël (The Reindeer Hunter)
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Première saison (1995)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>On a volé les cerfs du Père Noël (The Reindeer Hunter)
 Un ours très collant (Bowling for Bear)
 À table (Pet Food)
 Le Perroquet qui en savait trop (The Parrot Who Knew Too Much)
@@ -597,9 +655,43 @@
 Titre français inconnu (Day of the Groundhog)
 Un drôle de parfum (The Big Stink)
 La Fiancée du crocodile (The Gator Gal)
-Gare au taureau (The Bull Market)
-Deuxième saison (1996)
-Le Panda infernal (Panda-monium)
+Gare au taureau (The Bull Market)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ace_Ventura_(série_télévisée_d'animation)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ace_Ventura_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e_d%27animation)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Deuxième saison (1996)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le Panda infernal (Panda-monium)
 La Chute de température (Snow Job)
 Attention aux embouteillages (Salmon Rush Hour)
 La Fugue de Spike (The Search for Spike)
@@ -611,9 +703,43 @@
 À l'ouest, rien de robot (Robo West)
 Le Cri du caribou (Howl of the Weremoose)
 Une histoire de cheveux (Bald Courage)
-Un parcours mouvementé (Have Mask, Will Travel)
-Troisième saison (1999)
-L'Apprentie sorcière (Witch's Brew)
+Un parcours mouvementé (Have Mask, Will Travel)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ace_Ventura_(série_télévisée_d'animation)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ace_Ventura_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e_d%27animation)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Troisième saison (1999)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>L'Apprentie sorcière (Witch's Brew)
 Le Vol du faucon (Bird Is the Word)
 Dinosaurus minus (Dino Mite)
 L'Ace de l'espace (Ace in Space)
@@ -629,31 +755,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Ace_Ventura_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e_d%27animation)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ace_Ventura_(série_télévisée_d'animation)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ace_Ventura_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e_d%27animation)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Cross-Over</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">La série a eu le droit à un cross-over avec une autre série d'animation : The Mask, la série animée.  Le cross-over commence dans la série The Mask, la série animée (saison 2 épisode 39) et se conclut dans le final de la saison 2 d'Ace Ventura.
 </t>
